--- a/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C9E68D-144C-465E-840A-A1694E953017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56AE1F15-2501-492B-B529-DD0981F35AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85D43945-1EF5-4259-8B3B-9AE53BB69A81}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76A8BE0A-DF8D-48C1-863F-A28473D46BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,88 +74,88 @@
     <t>42,45%</t>
   </si>
   <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -167,139 +167,139 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -308,106 +308,106 @@
     <t>46,55%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>33,14%</t>
   </si>
   <si>
     <t>41,26%</t>
   </si>
   <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>40,37%</t>
   </si>
   <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>42,85%</t>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -416,103 +416,109 @@
     <t>44,89%</t>
   </si>
   <si>
-    <t>49,48%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>28,97%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>40,43%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>58,14%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -521,202 +527,205 @@
     <t>39,19%</t>
   </si>
   <si>
-    <t>43,08%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>40,51%</t>
   </si>
   <si>
-    <t>37,11%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>43,67%</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,57%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA32194-620A-4751-AB09-7F690ECA6D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7AB5B6-4021-4E26-BD79-65C05B83C062}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,7 +1799,7 @@
         <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -1799,13 +1808,13 @@
         <v>863690</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1829,13 @@
         <v>419203</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>668</v>
@@ -1835,13 +1844,13 @@
         <v>431067</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>1111</v>
@@ -1850,10 +1859,10 @@
         <v>850270</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -2029,10 +2038,10 @@
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>326</v>
@@ -2041,13 +2050,13 @@
         <v>252286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>604</v>
@@ -2056,13 +2065,13 @@
         <v>577428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2086,13 @@
         <v>292875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>501</v>
@@ -2092,13 +2101,13 @@
         <v>460008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>798</v>
@@ -2107,13 +2116,13 @@
         <v>752883</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2137,13 @@
         <v>87764</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>173</v>
@@ -2143,13 +2152,13 @@
         <v>125265</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>255</v>
@@ -2158,13 +2167,13 @@
         <v>213029</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2188,13 @@
         <v>18558</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -2194,13 +2203,13 @@
         <v>33389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -2209,13 +2218,13 @@
         <v>51947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,7 +2280,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2292,13 @@
         <v>377073</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -2298,13 +2307,13 @@
         <v>341955</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>798</v>
@@ -2313,13 +2322,13 @@
         <v>719028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2343,13 @@
         <v>389777</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>672</v>
@@ -2349,13 +2358,13 @@
         <v>482971</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1099</v>
@@ -2364,13 +2373,13 @@
         <v>872748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2394,13 @@
         <v>173541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>392</v>
@@ -2400,13 +2409,13 @@
         <v>281725</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -2415,13 +2424,13 @@
         <v>455266</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2445,13 @@
         <v>21716</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>68</v>
@@ -2451,13 +2460,13 @@
         <v>43781</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -2466,13 +2475,13 @@
         <v>65497</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2523,7 @@
         <v>2564</v>
       </c>
       <c r="N28" s="7">
-        <v>2112540</v>
+        <v>2112539</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2540,13 +2549,13 @@
         <v>1460097</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>1530</v>
@@ -2555,13 +2564,13 @@
         <v>1192067</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>2815</v>
@@ -2570,13 +2579,13 @@
         <v>2652164</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,16 +2597,16 @@
         <v>1496</v>
       </c>
       <c r="D30" s="7">
-        <v>1373796</v>
+        <v>1373795</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>2415</v>
@@ -2606,13 +2615,13 @@
         <v>1696237</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>3911</v>
@@ -2621,13 +2630,13 @@
         <v>3070033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,16 +2648,16 @@
         <v>513</v>
       </c>
       <c r="D31" s="7">
-        <v>464558</v>
+        <v>464557</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>1213</v>
@@ -2657,13 +2666,13 @@
         <v>782181</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>1726</v>
@@ -2672,13 +2681,13 @@
         <v>1246739</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2702,13 @@
         <v>76701</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>184</v>
@@ -2708,13 +2717,13 @@
         <v>125037</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="M32" s="7">
         <v>257</v>
@@ -2726,10 +2735,10 @@
         <v>85</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2750,7 @@
         <v>3367</v>
       </c>
       <c r="D33" s="7">
-        <v>3375151</v>
+        <v>3375150</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2785,7 +2794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56AE1F15-2501-492B-B529-DD0981F35AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D3BD6C-7F26-48CB-AF9E-77B62F076A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{76A8BE0A-DF8D-48C1-863F-A28473D46BF8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D097704-36E1-4D78-99B5-3325FABFCA4B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>42,16%</t>
@@ -302,7 +302,7 @@
     <t>3,85%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>46,55%</t>
@@ -410,7 +410,7 @@
     <t>3,1%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>44,89%</t>
@@ -1140,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7AB5B6-4021-4E26-BD79-65C05B83C062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E72DC-1BE4-499C-A1BB-095BA359C7C0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D3BD6C-7F26-48CB-AF9E-77B62F076A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5759098E-710F-406C-8298-DF38EDA78356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D097704-36E1-4D78-99B5-3325FABFCA4B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9E103B7-E73D-4AE7-B652-76063EC019B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,88 +74,88 @@
     <t>42,45%</t>
   </si>
   <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
     <t>32,86%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -167,139 +167,139 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -308,424 +308,415 @@
     <t>46,55%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>36,05%</t>
   </si>
   <si>
-    <t>33,14%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
   </si>
   <si>
     <t>41,26%</t>
   </si>
   <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>40,37%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>40,62%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>42,85%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>44,69%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
   </si>
   <si>
     <t>42,81%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>17,39%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>16,33%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E72DC-1BE4-499C-A1BB-095BA359C7C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961A042D-4E3E-4DDB-9957-7E744BE8EFBD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1799,7 +1790,7 @@
         <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>835</v>
@@ -1808,13 +1799,13 @@
         <v>863690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1820,13 @@
         <v>419203</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>668</v>
@@ -1844,13 +1835,13 @@
         <v>431067</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>1111</v>
@@ -1859,10 +1850,10 @@
         <v>850270</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -2038,10 +2029,10 @@
         <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>326</v>
@@ -2050,13 +2041,13 @@
         <v>252286</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>604</v>
@@ -2065,13 +2056,13 @@
         <v>577428</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2077,13 @@
         <v>292875</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>501</v>
@@ -2101,13 +2092,13 @@
         <v>460008</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>798</v>
@@ -2116,13 +2107,13 @@
         <v>752883</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2128,13 @@
         <v>87764</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>173</v>
@@ -2152,13 +2143,13 @@
         <v>125265</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>255</v>
@@ -2167,13 +2158,13 @@
         <v>213029</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2179,13 @@
         <v>18558</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -2203,13 +2194,13 @@
         <v>33389</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -2218,13 +2209,13 @@
         <v>51947</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2283,13 @@
         <v>377073</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -2307,13 +2298,13 @@
         <v>341955</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>798</v>
@@ -2322,13 +2313,13 @@
         <v>719028</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2334,13 @@
         <v>389777</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>672</v>
@@ -2358,13 +2349,13 @@
         <v>482971</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>1099</v>
@@ -2373,13 +2364,13 @@
         <v>872748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2385,13 @@
         <v>173541</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>392</v>
@@ -2409,13 +2400,13 @@
         <v>281725</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>576</v>
@@ -2424,13 +2415,13 @@
         <v>455266</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2436,13 @@
         <v>21716</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>68</v>
@@ -2460,13 +2451,13 @@
         <v>43781</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>91</v>
@@ -2475,13 +2466,13 @@
         <v>65497</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2514,7 @@
         <v>2564</v>
       </c>
       <c r="N28" s="7">
-        <v>2112539</v>
+        <v>2112540</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2549,13 +2540,13 @@
         <v>1460097</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>1530</v>
@@ -2564,13 +2555,13 @@
         <v>1192067</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>2815</v>
@@ -2579,13 +2570,13 @@
         <v>2652164</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,16 +2588,16 @@
         <v>1496</v>
       </c>
       <c r="D30" s="7">
-        <v>1373795</v>
+        <v>1373796</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>2415</v>
@@ -2615,13 +2606,13 @@
         <v>1696237</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>3911</v>
@@ -2630,13 +2621,13 @@
         <v>3070033</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,16 +2639,16 @@
         <v>513</v>
       </c>
       <c r="D31" s="7">
-        <v>464557</v>
+        <v>464558</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>1213</v>
@@ -2666,13 +2657,13 @@
         <v>782181</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>1726</v>
@@ -2681,13 +2672,13 @@
         <v>1246739</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2693,13 @@
         <v>76701</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>184</v>
@@ -2717,13 +2708,13 @@
         <v>125037</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>257</v>
@@ -2735,10 +2726,10 @@
         <v>85</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,7 +2741,7 @@
         <v>3367</v>
       </c>
       <c r="D33" s="7">
-        <v>3375150</v>
+        <v>3375151</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2794,7 +2785,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5759098E-710F-406C-8298-DF38EDA78356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E93E20-C60F-40E8-899E-8A45ADE66EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9E103B7-E73D-4AE7-B652-76063EC019B5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DA6C2917-F6DC-4D82-B573-39A352672102}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -65,658 +65,556 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
     <t>42,45%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,8 +1029,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961A042D-4E3E-4DDB-9957-7E744BE8EFBD}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BC085-2BA4-4E86-BDF6-CD947BA69C37}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1249,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="D4" s="7">
-        <v>43027</v>
+        <v>268172</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1264,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>55</v>
+        <v>311</v>
       </c>
       <c r="I4" s="7">
-        <v>35970</v>
+        <v>200724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1279,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>98</v>
+        <v>578</v>
       </c>
       <c r="N4" s="7">
-        <v>78997</v>
+        <v>468895</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1300,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>40778</v>
+        <v>269137</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1315,10 +1213,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>574</v>
       </c>
       <c r="I5" s="7">
-        <v>56053</v>
+        <v>303756</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1330,10 +1228,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>153</v>
+        <v>903</v>
       </c>
       <c r="N5" s="7">
-        <v>96832</v>
+        <v>572894</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1351,10 +1249,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7">
-        <v>16713</v>
+        <v>82655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1366,10 +1264,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="I6" s="7">
-        <v>33321</v>
+        <v>147957</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1381,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>50034</v>
+        <v>230612</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1402,10 +1300,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>831</v>
+        <v>14084</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1417,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>2695</v>
+        <v>18993</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1432,10 +1330,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>3526</v>
+        <v>33077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1453,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D8" s="7">
-        <v>101349</v>
+        <v>634048</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1468,10 +1366,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>238</v>
+        <v>1230</v>
       </c>
       <c r="I8" s="7">
-        <v>128039</v>
+        <v>671430</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1483,10 +1381,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>355</v>
+        <v>1958</v>
       </c>
       <c r="N8" s="7">
-        <v>229389</v>
+        <v>1305478</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1506,49 +1404,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>224</v>
+        <v>372</v>
       </c>
       <c r="D9" s="7">
-        <v>231467</v>
+        <v>656201</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>463</v>
+      </c>
+      <c r="I9" s="7">
+        <v>339658</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>256</v>
-      </c>
-      <c r="I9" s="7">
-        <v>181555</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>835</v>
+      </c>
+      <c r="N9" s="7">
+        <v>995860</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>480</v>
-      </c>
-      <c r="N9" s="7">
-        <v>413021</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,49 +1455,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>443</v>
       </c>
       <c r="D10" s="7">
-        <v>231162</v>
+        <v>407374</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>668</v>
+      </c>
+      <c r="I10" s="7">
+        <v>394523</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>469</v>
-      </c>
-      <c r="I10" s="7">
-        <v>266137</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1111</v>
+      </c>
+      <c r="N10" s="7">
+        <v>801898</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="7">
-        <v>750</v>
-      </c>
-      <c r="N10" s="7">
-        <v>497300</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1506,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D11" s="7">
-        <v>71966</v>
+        <v>107922</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>337</v>
+      </c>
+      <c r="I11" s="7">
+        <v>194762</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>239</v>
-      </c>
-      <c r="I11" s="7">
-        <v>125659</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>466</v>
+      </c>
+      <c r="N11" s="7">
+        <v>302684</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>332</v>
-      </c>
-      <c r="N11" s="7">
-        <v>197625</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,49 +1557,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>14374</v>
+        <v>20558</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>40</v>
+      </c>
+      <c r="I12" s="7">
+        <v>25135</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17703</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>59</v>
+      </c>
+      <c r="N12" s="7">
+        <v>45692</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="7">
-        <v>41</v>
-      </c>
-      <c r="N12" s="7">
-        <v>32077</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D13" s="7">
-        <v>548969</v>
+        <v>1192054</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1725,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>992</v>
+        <v>1508</v>
       </c>
       <c r="I13" s="7">
-        <v>591054</v>
+        <v>954079</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1740,10 +1638,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>1603</v>
+        <v>2471</v>
       </c>
       <c r="N13" s="7">
-        <v>1140023</v>
+        <v>2146134</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1757,55 +1655,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>372</v>
+        <v>278</v>
       </c>
       <c r="D14" s="7">
-        <v>483389</v>
+        <v>314410</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>326</v>
+      </c>
+      <c r="I14" s="7">
+        <v>230509</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>463</v>
-      </c>
-      <c r="I14" s="7">
-        <v>380301</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>604</v>
+      </c>
+      <c r="N14" s="7">
+        <v>544919</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="7">
-        <v>835</v>
-      </c>
-      <c r="N14" s="7">
-        <v>863690</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,46 +1712,46 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>443</v>
+        <v>297</v>
       </c>
       <c r="D15" s="7">
-        <v>419203</v>
+        <v>286069</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>501</v>
+      </c>
+      <c r="I15" s="7">
+        <v>556463</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>668</v>
-      </c>
-      <c r="I15" s="7">
-        <v>431067</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>798</v>
+      </c>
+      <c r="N15" s="7">
+        <v>842532</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="7">
-        <v>1111</v>
-      </c>
-      <c r="N15" s="7">
-        <v>850270</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -1865,10 +1763,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>114573</v>
+        <v>82152</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1880,34 +1778,34 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="I16" s="7">
-        <v>216212</v>
+        <v>113006</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>255</v>
+      </c>
+      <c r="N16" s="7">
+        <v>195157</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="7">
-        <v>466</v>
-      </c>
-      <c r="N16" s="7">
-        <v>330785</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,49 +1814,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>21222</v>
+        <v>17231</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>42</v>
+      </c>
+      <c r="I17" s="7">
+        <v>30451</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>40</v>
-      </c>
-      <c r="I17" s="7">
-        <v>27470</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>48692</v>
+        <v>47682</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,10 +1865,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>963</v>
+        <v>674</v>
       </c>
       <c r="D18" s="7">
-        <v>1038387</v>
+        <v>699861</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1982,10 +1880,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>1508</v>
+        <v>1042</v>
       </c>
       <c r="I18" s="7">
-        <v>1055050</v>
+        <v>930429</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1997,10 +1895,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>2471</v>
+        <v>1716</v>
       </c>
       <c r="N18" s="7">
-        <v>2093437</v>
+        <v>1630290</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2014,31 +1912,31 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="D19" s="7">
-        <v>325141</v>
+        <v>361534</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="I19" s="7">
-        <v>252286</v>
+        <v>306581</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -2050,10 +1948,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>604</v>
+        <v>798</v>
       </c>
       <c r="N19" s="7">
-        <v>577428</v>
+        <v>668115</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -2071,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>297</v>
+        <v>427</v>
       </c>
       <c r="D20" s="7">
-        <v>292875</v>
+        <v>381972</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -2086,10 +1984,10 @@
         <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>501</v>
+        <v>672</v>
       </c>
       <c r="I20" s="7">
-        <v>460008</v>
+        <v>499784</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -2101,19 +1999,19 @@
         <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>798</v>
+        <v>1099</v>
       </c>
       <c r="N20" s="7">
-        <v>752883</v>
+        <v>881755</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,10 +2020,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="D21" s="7">
-        <v>87764</v>
+        <v>159494</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -2137,10 +2035,10 @@
         <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>173</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>125265</v>
+        <v>248916</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -2152,10 +2050,10 @@
         <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>255</v>
+        <v>576</v>
       </c>
       <c r="N21" s="7">
-        <v>213029</v>
+        <v>408411</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -2173,49 +2071,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>18558</v>
+        <v>20470</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>68</v>
+      </c>
+      <c r="I22" s="7">
+        <v>39651</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="7">
-        <v>42</v>
-      </c>
-      <c r="I22" s="7">
-        <v>33389</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>91</v>
+      </c>
+      <c r="N22" s="7">
+        <v>60121</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>59</v>
-      </c>
-      <c r="N22" s="7">
-        <v>51947</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>674</v>
+        <v>1002</v>
       </c>
       <c r="D23" s="7">
-        <v>724338</v>
+        <v>923470</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2239,10 +2137,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>1042</v>
+        <v>1562</v>
       </c>
       <c r="I23" s="7">
-        <v>870948</v>
+        <v>1094932</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2254,10 +2152,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>1716</v>
+        <v>2564</v>
       </c>
       <c r="N23" s="7">
-        <v>1595286</v>
+        <v>2018402</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2271,55 +2169,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>368</v>
+        <v>1285</v>
       </c>
       <c r="D24" s="7">
-        <v>377073</v>
+        <v>1600317</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>1530</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1077472</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="7">
-        <v>430</v>
-      </c>
-      <c r="I24" s="7">
-        <v>341955</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>2815</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2677789</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="7">
-        <v>798</v>
-      </c>
-      <c r="N24" s="7">
-        <v>719028</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,49 +2226,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>427</v>
+        <v>1496</v>
       </c>
       <c r="D25" s="7">
-        <v>389777</v>
+        <v>1344552</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>2415</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1754527</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="7">
-        <v>672</v>
-      </c>
-      <c r="I25" s="7">
-        <v>482971</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>3911</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3099078</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="7">
-        <v>1099</v>
-      </c>
-      <c r="N25" s="7">
-        <v>872748</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,49 +2277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>513</v>
+      </c>
+      <c r="D26" s="7">
+        <v>432223</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1213</v>
+      </c>
+      <c r="I26" s="7">
+        <v>704641</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1726</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1136864</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D26" s="7">
-        <v>173541</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="7">
-        <v>392</v>
-      </c>
-      <c r="I26" s="7">
-        <v>281725</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M26" s="7">
-        <v>576</v>
-      </c>
-      <c r="N26" s="7">
-        <v>455266</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,49 +2328,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D27" s="7">
-        <v>21716</v>
+        <v>72342</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>184</v>
+      </c>
+      <c r="I27" s="7">
+        <v>114230</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="7">
-        <v>68</v>
-      </c>
-      <c r="I27" s="7">
-        <v>43781</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>257</v>
+      </c>
+      <c r="N27" s="7">
+        <v>186572</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M27" s="7">
-        <v>91</v>
-      </c>
-      <c r="N27" s="7">
-        <v>65497</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>1002</v>
+        <v>3367</v>
       </c>
       <c r="D28" s="7">
-        <v>962108</v>
+        <v>3449434</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2496,10 +2394,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>1562</v>
+        <v>5342</v>
       </c>
       <c r="I28" s="7">
-        <v>1150432</v>
+        <v>3650870</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2511,10 +2409,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>2564</v>
+        <v>8709</v>
       </c>
       <c r="N28" s="7">
-        <v>2112540</v>
+        <v>7100303</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2527,273 +2425,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1285</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1460097</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1530</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1192067</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2815</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2652164</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1496</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1373796</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>2415</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1696237</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3911</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3070033</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>513</v>
-      </c>
-      <c r="D31" s="7">
-        <v>464558</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1213</v>
-      </c>
-      <c r="I31" s="7">
-        <v>782181</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1726</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1246739</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>73</v>
-      </c>
-      <c r="D32" s="7">
-        <v>76701</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="7">
-        <v>184</v>
-      </c>
-      <c r="I32" s="7">
-        <v>125037</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M32" s="7">
-        <v>257</v>
-      </c>
-      <c r="N32" s="7">
-        <v>201738</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3367</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3375151</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>5342</v>
-      </c>
-      <c r="I33" s="7">
-        <v>3795523</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>8709</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7170674</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>227</v>
+      <c r="A29" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
